--- a/Financials/Yearly/DDAIF_YR_FIN.xlsx
+++ b/Financials/Yearly/DDAIF_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E3BEE-B012-4BF2-82FC-5DB987F7CA9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDAIF" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>192892200</v>
+        <v>187778500</v>
       </c>
       <c r="E8" s="3">
-        <v>179899300</v>
+        <v>184179100</v>
       </c>
       <c r="F8" s="3">
-        <v>175445900</v>
+        <v>171957300</v>
       </c>
       <c r="G8" s="3">
-        <v>152445100</v>
+        <v>167700500</v>
       </c>
       <c r="H8" s="3">
-        <v>138488500</v>
+        <v>145715100</v>
       </c>
       <c r="I8" s="3">
-        <v>134163000</v>
+        <v>132374600</v>
       </c>
       <c r="J8" s="3">
+        <v>128240100</v>
+      </c>
+      <c r="K8" s="3">
         <v>125057700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>152485000</v>
+        <v>150528400</v>
       </c>
       <c r="E9" s="3">
-        <v>142231700</v>
+        <v>145439100</v>
       </c>
       <c r="F9" s="3">
-        <v>138475500</v>
+        <v>135952700</v>
       </c>
       <c r="G9" s="3">
-        <v>119250900</v>
+        <v>132362300</v>
       </c>
       <c r="H9" s="3">
-        <v>108910800</v>
+        <v>113986300</v>
       </c>
       <c r="I9" s="3">
-        <v>108650200</v>
+        <v>104102700</v>
       </c>
       <c r="J9" s="3">
+        <v>103853600</v>
+      </c>
+      <c r="K9" s="3">
         <v>190211200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>40407200</v>
+        <v>37250100</v>
       </c>
       <c r="E10" s="3">
-        <v>37667600</v>
+        <v>38740100</v>
       </c>
       <c r="F10" s="3">
-        <v>36970300</v>
+        <v>36004700</v>
       </c>
       <c r="G10" s="3">
-        <v>33194200</v>
+        <v>35338200</v>
       </c>
       <c r="H10" s="3">
-        <v>29577700</v>
+        <v>31728800</v>
       </c>
       <c r="I10" s="3">
-        <v>25512800</v>
+        <v>28271900</v>
       </c>
       <c r="J10" s="3">
+        <v>24386500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-65153500</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6869100</v>
+        <v>7309800</v>
       </c>
       <c r="E12" s="3">
-        <v>6126100</v>
+        <v>6608500</v>
       </c>
       <c r="F12" s="3">
-        <v>5542700</v>
+        <v>5855700</v>
       </c>
       <c r="G12" s="3">
-        <v>5269200</v>
+        <v>5298000</v>
       </c>
       <c r="H12" s="3">
-        <v>4913600</v>
+        <v>5036600</v>
       </c>
       <c r="I12" s="3">
-        <v>9760200</v>
+        <v>4696700</v>
       </c>
       <c r="J12" s="3">
+        <v>9329300</v>
+      </c>
+      <c r="K12" s="3">
         <v>4899500</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>341600</v>
+        <v>149200</v>
       </c>
       <c r="E14" s="3">
-        <v>324000</v>
+        <v>28000</v>
       </c>
       <c r="F14" s="3">
-        <v>355700</v>
+        <v>309700</v>
       </c>
       <c r="G14" s="3">
-        <v>286400</v>
+        <v>340000</v>
       </c>
       <c r="H14" s="3">
-        <v>165500</v>
+        <v>273800</v>
       </c>
       <c r="I14" s="3">
-        <v>158500</v>
+        <v>158200</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>151500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>213600</v>
+        <v>233400</v>
       </c>
       <c r="E15" s="3">
-        <v>172600</v>
+        <v>204200</v>
       </c>
       <c r="F15" s="3">
-        <v>178400</v>
+        <v>164900</v>
       </c>
       <c r="G15" s="3">
-        <v>191300</v>
+        <v>170500</v>
       </c>
       <c r="H15" s="3">
-        <v>71600</v>
+        <v>182900</v>
       </c>
       <c r="I15" s="3">
-        <v>74000</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>68400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>177162000</v>
+        <v>176277000</v>
       </c>
       <c r="E17" s="3">
-        <v>165680900</v>
+        <v>169540500</v>
       </c>
       <c r="F17" s="3">
-        <v>160492700</v>
+        <v>158366600</v>
       </c>
       <c r="G17" s="3">
-        <v>141425300</v>
+        <v>153407400</v>
       </c>
       <c r="H17" s="3">
-        <v>129315100</v>
+        <v>135181800</v>
       </c>
       <c r="I17" s="3">
-        <v>124673900</v>
+        <v>123606300</v>
       </c>
       <c r="J17" s="3">
+        <v>119169900</v>
+      </c>
+      <c r="K17" s="3">
         <v>115140200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15730200</v>
+        <v>11501500</v>
       </c>
       <c r="E18" s="3">
-        <v>14218400</v>
+        <v>14638600</v>
       </c>
       <c r="F18" s="3">
-        <v>14953200</v>
+        <v>13590700</v>
       </c>
       <c r="G18" s="3">
-        <v>11019700</v>
+        <v>14293000</v>
       </c>
       <c r="H18" s="3">
-        <v>9173300</v>
+        <v>10533200</v>
       </c>
       <c r="I18" s="3">
-        <v>9489100</v>
+        <v>8768400</v>
       </c>
       <c r="J18" s="3">
+        <v>9070200</v>
+      </c>
+      <c r="K18" s="3">
         <v>9917500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1491900</v>
+        <v>1126500</v>
       </c>
       <c r="E20" s="3">
-        <v>915600</v>
+        <v>1448500</v>
       </c>
       <c r="F20" s="3">
-        <v>368600</v>
+        <v>875200</v>
       </c>
       <c r="G20" s="3">
-        <v>1349900</v>
+        <v>352300</v>
       </c>
       <c r="H20" s="3">
-        <v>3348900</v>
+        <v>1290300</v>
       </c>
       <c r="I20" s="3">
-        <v>731300</v>
+        <v>3201000</v>
       </c>
       <c r="J20" s="3">
+        <v>699000</v>
+      </c>
+      <c r="K20" s="3">
         <v>272300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23889200</v>
+        <v>19719200</v>
       </c>
       <c r="E21" s="3">
-        <v>21568400</v>
+        <v>22470800</v>
       </c>
       <c r="F21" s="3">
-        <v>21645800</v>
+        <v>20626900</v>
       </c>
       <c r="G21" s="3">
-        <v>18241500</v>
+        <v>20700700</v>
       </c>
       <c r="H21" s="3">
-        <v>17652900</v>
+        <v>17445900</v>
       </c>
       <c r="I21" s="3">
-        <v>14997500</v>
+        <v>16882000</v>
       </c>
       <c r="J21" s="3">
+        <v>14343300</v>
+      </c>
+      <c r="K21" s="3">
         <v>14389100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>435500</v>
+        <v>740500</v>
       </c>
       <c r="E22" s="3">
-        <v>374400</v>
+        <v>416300</v>
       </c>
       <c r="F22" s="3">
-        <v>362700</v>
+        <v>357900</v>
       </c>
       <c r="G22" s="3">
-        <v>428400</v>
+        <v>346700</v>
       </c>
       <c r="H22" s="3">
-        <v>620900</v>
+        <v>409500</v>
       </c>
       <c r="I22" s="3">
-        <v>693700</v>
+        <v>593500</v>
       </c>
       <c r="J22" s="3">
+        <v>663100</v>
+      </c>
+      <c r="K22" s="3">
         <v>272300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16786700</v>
+        <v>11887500</v>
       </c>
       <c r="E23" s="3">
-        <v>14759500</v>
+        <v>15670800</v>
       </c>
       <c r="F23" s="3">
-        <v>14959000</v>
+        <v>14107900</v>
       </c>
       <c r="G23" s="3">
-        <v>11941200</v>
+        <v>14298600</v>
       </c>
       <c r="H23" s="3">
-        <v>11901300</v>
+        <v>11414000</v>
       </c>
       <c r="I23" s="3">
-        <v>9526600</v>
+        <v>11375900</v>
       </c>
       <c r="J23" s="3">
+        <v>9106100</v>
+      </c>
+      <c r="K23" s="3">
         <v>9917500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4034400</v>
+        <v>3380600</v>
       </c>
       <c r="E24" s="3">
-        <v>4448700</v>
+        <v>3758700</v>
       </c>
       <c r="F24" s="3">
-        <v>4734000</v>
+        <v>4252300</v>
       </c>
       <c r="G24" s="3">
-        <v>3384100</v>
+        <v>4525000</v>
       </c>
       <c r="H24" s="3">
-        <v>1665600</v>
+        <v>3234700</v>
       </c>
       <c r="I24" s="3">
-        <v>1509500</v>
+        <v>1592100</v>
       </c>
       <c r="J24" s="3">
+        <v>1442900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2840600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12752300</v>
+        <v>8506900</v>
       </c>
       <c r="E26" s="3">
-        <v>10310700</v>
+        <v>11912200</v>
       </c>
       <c r="F26" s="3">
-        <v>10225100</v>
+        <v>9855600</v>
       </c>
       <c r="G26" s="3">
-        <v>8557100</v>
+        <v>9773700</v>
       </c>
       <c r="H26" s="3">
-        <v>10235600</v>
+        <v>8179300</v>
       </c>
       <c r="I26" s="3">
-        <v>8017100</v>
+        <v>9783800</v>
       </c>
       <c r="J26" s="3">
+        <v>7663200</v>
+      </c>
+      <c r="K26" s="3">
         <v>7076900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12354400</v>
+        <v>8133300</v>
       </c>
       <c r="E27" s="3">
-        <v>10007900</v>
+        <v>11531800</v>
       </c>
       <c r="F27" s="3">
-        <v>9888200</v>
+        <v>9566100</v>
       </c>
       <c r="G27" s="3">
-        <v>8172100</v>
+        <v>9451600</v>
       </c>
       <c r="H27" s="3">
-        <v>8031200</v>
+        <v>7811300</v>
       </c>
       <c r="I27" s="3">
-        <v>7545300</v>
+        <v>7676700</v>
       </c>
       <c r="J27" s="3">
+        <v>7212200</v>
+      </c>
+      <c r="K27" s="3">
         <v>6652000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1491900</v>
+        <v>-1126500</v>
       </c>
       <c r="E32" s="3">
-        <v>-915600</v>
+        <v>-1448500</v>
       </c>
       <c r="F32" s="3">
-        <v>-368600</v>
+        <v>-875200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1349900</v>
+        <v>-352300</v>
       </c>
       <c r="H32" s="3">
-        <v>-3348900</v>
+        <v>-1290300</v>
       </c>
       <c r="I32" s="3">
-        <v>-731300</v>
+        <v>-3201000</v>
       </c>
       <c r="J32" s="3">
+        <v>-699000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-272300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12354400</v>
+        <v>8133300</v>
       </c>
       <c r="E33" s="3">
-        <v>10007900</v>
+        <v>11531800</v>
       </c>
       <c r="F33" s="3">
-        <v>9888200</v>
+        <v>9566100</v>
       </c>
       <c r="G33" s="3">
-        <v>8172100</v>
+        <v>9451600</v>
       </c>
       <c r="H33" s="3">
-        <v>8031200</v>
+        <v>7811300</v>
       </c>
       <c r="I33" s="3">
-        <v>7545300</v>
+        <v>7676700</v>
       </c>
       <c r="J33" s="3">
+        <v>7212200</v>
+      </c>
+      <c r="K33" s="3">
         <v>6652000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12354400</v>
+        <v>8133300</v>
       </c>
       <c r="E35" s="3">
-        <v>10007900</v>
+        <v>11531800</v>
       </c>
       <c r="F35" s="3">
-        <v>9888200</v>
+        <v>9566100</v>
       </c>
       <c r="G35" s="3">
-        <v>8172100</v>
+        <v>9451600</v>
       </c>
       <c r="H35" s="3">
-        <v>8031200</v>
+        <v>7811300</v>
       </c>
       <c r="I35" s="3">
-        <v>7545300</v>
+        <v>7676700</v>
       </c>
       <c r="J35" s="3">
+        <v>7212200</v>
+      </c>
+      <c r="K35" s="3">
         <v>6652000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14170200</v>
+        <v>17786900</v>
       </c>
       <c r="E41" s="3">
-        <v>12889600</v>
+        <v>13544700</v>
       </c>
       <c r="F41" s="3">
-        <v>11663000</v>
+        <v>12320600</v>
       </c>
       <c r="G41" s="3">
-        <v>11347200</v>
+        <v>11148100</v>
       </c>
       <c r="H41" s="3">
-        <v>12974100</v>
+        <v>10846300</v>
       </c>
       <c r="I41" s="3">
-        <v>12907200</v>
+        <v>12401400</v>
       </c>
       <c r="J41" s="3">
+        <v>12337400</v>
+      </c>
+      <c r="K41" s="3">
         <v>11240400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17630600</v>
+        <v>12679600</v>
       </c>
       <c r="E42" s="3">
-        <v>13888500</v>
+        <v>16877000</v>
       </c>
       <c r="F42" s="3">
-        <v>10885900</v>
+        <v>13275400</v>
       </c>
       <c r="G42" s="3">
-        <v>8262400</v>
+        <v>10405300</v>
       </c>
       <c r="H42" s="3">
-        <v>8348100</v>
+        <v>7897700</v>
       </c>
       <c r="I42" s="3">
-        <v>7194300</v>
+        <v>7979600</v>
       </c>
       <c r="J42" s="3">
+        <v>6876700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1565900</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78388200</v>
+        <v>69741800</v>
       </c>
       <c r="E43" s="3">
-        <v>60896100</v>
+        <v>74933200</v>
       </c>
       <c r="F43" s="3">
-        <v>55521200</v>
+        <v>58207700</v>
       </c>
       <c r="G43" s="3">
-        <v>44733900</v>
+        <v>53070100</v>
       </c>
       <c r="H43" s="3">
-        <v>36921000</v>
+        <v>42759000</v>
       </c>
       <c r="I43" s="3">
-        <v>69351000</v>
+        <v>35291100</v>
       </c>
       <c r="J43" s="3">
+        <v>66289400</v>
+      </c>
+      <c r="K43" s="3">
         <v>33346800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30150500</v>
+        <v>33086400</v>
       </c>
       <c r="E44" s="3">
-        <v>29796000</v>
+        <v>28819400</v>
       </c>
       <c r="F44" s="3">
-        <v>27889700</v>
+        <v>28480600</v>
       </c>
       <c r="G44" s="3">
-        <v>24490400</v>
+        <v>26658500</v>
       </c>
       <c r="H44" s="3">
-        <v>20364400</v>
+        <v>23409200</v>
       </c>
       <c r="I44" s="3">
-        <v>20799900</v>
+        <v>19465400</v>
       </c>
       <c r="J44" s="3">
+        <v>19881700</v>
+      </c>
+      <c r="K44" s="3">
         <v>20049800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9234400</v>
+        <v>3153900</v>
       </c>
       <c r="E45" s="3">
-        <v>2319400</v>
+        <v>8887300</v>
       </c>
       <c r="F45" s="3">
-        <v>1851100</v>
+        <v>2217100</v>
       </c>
       <c r="G45" s="3">
-        <v>1719600</v>
+        <v>1769400</v>
       </c>
       <c r="H45" s="3">
-        <v>4076600</v>
+        <v>1643700</v>
       </c>
       <c r="I45" s="3">
-        <v>6473600</v>
+        <v>3896700</v>
       </c>
       <c r="J45" s="3">
+        <v>6187800</v>
+      </c>
+      <c r="K45" s="3">
         <v>5538000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125476000</v>
+        <v>136449000</v>
       </c>
       <c r="E46" s="3">
-        <v>119790000</v>
+        <v>119936000</v>
       </c>
       <c r="F46" s="3">
-        <v>107811000</v>
+        <v>114501000</v>
       </c>
       <c r="G46" s="3">
-        <v>90553600</v>
+        <v>103051000</v>
       </c>
       <c r="H46" s="3">
-        <v>82684400</v>
+        <v>86555900</v>
       </c>
       <c r="I46" s="3">
-        <v>79182900</v>
+        <v>79034100</v>
       </c>
       <c r="J46" s="3">
+        <v>75687200</v>
+      </c>
+      <c r="K46" s="3">
         <v>71740900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68281700</v>
+        <v>66787600</v>
       </c>
       <c r="E47" s="3">
-        <v>58678800</v>
+        <v>65249300</v>
       </c>
       <c r="F47" s="3">
-        <v>55356900</v>
+        <v>56088300</v>
       </c>
       <c r="G47" s="3">
-        <v>48774200</v>
+        <v>52913000</v>
       </c>
       <c r="H47" s="3">
-        <v>41937900</v>
+        <v>46620900</v>
       </c>
       <c r="I47" s="3">
-        <v>44996800</v>
+        <v>40086500</v>
       </c>
       <c r="J47" s="3">
+        <v>43010400</v>
+      </c>
+      <c r="K47" s="3">
         <v>35936200</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>176952000</v>
+        <v>90234900</v>
       </c>
       <c r="E48" s="3">
-        <v>86067300</v>
+        <v>168422000</v>
       </c>
       <c r="F48" s="3">
-        <v>74259900</v>
+        <v>82267700</v>
       </c>
       <c r="G48" s="3">
-        <v>66005700</v>
+        <v>70981600</v>
       </c>
       <c r="H48" s="3">
-        <v>58618900</v>
+        <v>63091700</v>
       </c>
       <c r="I48" s="3">
-        <v>109533000</v>
+        <v>56031100</v>
       </c>
       <c r="J48" s="3">
+        <v>104697000</v>
+      </c>
+      <c r="K48" s="3">
         <v>49289500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32244600</v>
+        <v>16606600</v>
       </c>
       <c r="E49" s="3">
-        <v>14200800</v>
+        <v>30821100</v>
       </c>
       <c r="F49" s="3">
-        <v>11819100</v>
+        <v>13573800</v>
       </c>
       <c r="G49" s="3">
-        <v>10995100</v>
+        <v>11297300</v>
       </c>
       <c r="H49" s="3">
-        <v>11019700</v>
+        <v>10509700</v>
       </c>
       <c r="I49" s="3">
-        <v>20858600</v>
+        <v>10533200</v>
       </c>
       <c r="J49" s="3">
+        <v>19937800</v>
+      </c>
+      <c r="K49" s="3">
         <v>9694500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6871500</v>
+        <v>5896100</v>
       </c>
       <c r="E52" s="3">
-        <v>6485300</v>
+        <v>6632100</v>
       </c>
       <c r="F52" s="3">
-        <v>5664800</v>
+        <v>6199000</v>
       </c>
       <c r="G52" s="3">
-        <v>6267000</v>
+        <v>5414700</v>
       </c>
       <c r="H52" s="3">
-        <v>3547300</v>
+        <v>5990300</v>
       </c>
       <c r="I52" s="3">
-        <v>8401000</v>
+        <v>3390700</v>
       </c>
       <c r="J52" s="3">
+        <v>8030100</v>
+      </c>
+      <c r="K52" s="3">
         <v>7217800</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>299727000</v>
+        <v>315974000</v>
       </c>
       <c r="E54" s="3">
-        <v>285222000</v>
+        <v>286495000</v>
       </c>
       <c r="F54" s="3">
-        <v>254912000</v>
+        <v>272630000</v>
       </c>
       <c r="G54" s="3">
-        <v>222596000</v>
+        <v>243658000</v>
       </c>
       <c r="H54" s="3">
-        <v>197808000</v>
+        <v>212769000</v>
       </c>
       <c r="I54" s="3">
-        <v>191404000</v>
+        <v>189076000</v>
       </c>
       <c r="J54" s="3">
+        <v>182954000</v>
+      </c>
+      <c r="K54" s="3">
         <v>173879000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14615100</v>
+        <v>15915400</v>
       </c>
       <c r="E57" s="3">
-        <v>13577500</v>
+        <v>13969900</v>
       </c>
       <c r="F57" s="3">
-        <v>12381300</v>
+        <v>12978100</v>
       </c>
       <c r="G57" s="3">
-        <v>11947000</v>
+        <v>11834800</v>
       </c>
       <c r="H57" s="3">
-        <v>10665200</v>
+        <v>11419600</v>
       </c>
       <c r="I57" s="3">
-        <v>10367100</v>
+        <v>10194400</v>
       </c>
       <c r="J57" s="3">
+        <v>9909400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11168800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57218500</v>
+        <v>63100700</v>
       </c>
       <c r="E58" s="3">
-        <v>55507100</v>
+        <v>54692500</v>
       </c>
       <c r="F58" s="3">
-        <v>48491300</v>
+        <v>53056700</v>
       </c>
       <c r="G58" s="3">
-        <v>42597600</v>
+        <v>46350500</v>
       </c>
       <c r="H58" s="3">
-        <v>38726300</v>
+        <v>40717000</v>
       </c>
       <c r="I58" s="3">
-        <v>38695800</v>
+        <v>37016700</v>
       </c>
       <c r="J58" s="3">
+        <v>36987500</v>
+      </c>
+      <c r="K58" s="3">
         <v>31341900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44642300</v>
+        <v>30885000</v>
       </c>
       <c r="E59" s="3">
-        <v>30051900</v>
+        <v>40134700</v>
       </c>
       <c r="F59" s="3">
-        <v>29605800</v>
+        <v>28725200</v>
       </c>
       <c r="G59" s="3">
-        <v>24070100</v>
+        <v>28298800</v>
       </c>
       <c r="H59" s="3">
-        <v>19990000</v>
+        <v>23007500</v>
       </c>
       <c r="I59" s="3">
-        <v>21848100</v>
+        <v>19107500</v>
       </c>
       <c r="J59" s="3">
+        <v>20883600</v>
+      </c>
+      <c r="K59" s="3">
         <v>21878600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>102854000</v>
+        <v>109901000</v>
       </c>
       <c r="E60" s="3">
-        <v>99136500</v>
+        <v>98313300</v>
       </c>
       <c r="F60" s="3">
-        <v>90478400</v>
+        <v>94759900</v>
       </c>
       <c r="G60" s="3">
-        <v>78614800</v>
+        <v>86484100</v>
       </c>
       <c r="H60" s="3">
-        <v>69381600</v>
+        <v>75144200</v>
       </c>
       <c r="I60" s="3">
-        <v>68921400</v>
+        <v>66318600</v>
       </c>
       <c r="J60" s="3">
+        <v>65878800</v>
+      </c>
+      <c r="K60" s="3">
         <v>64389300</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92000900</v>
+        <v>99477900</v>
       </c>
       <c r="E61" s="3">
-        <v>82633900</v>
+        <v>87939300</v>
       </c>
       <c r="F61" s="3">
-        <v>70230200</v>
+        <v>78985900</v>
       </c>
       <c r="G61" s="3">
-        <v>59158900</v>
+        <v>67129800</v>
       </c>
       <c r="H61" s="3">
-        <v>52523300</v>
+        <v>56547200</v>
       </c>
       <c r="I61" s="3">
-        <v>50872900</v>
+        <v>50204600</v>
       </c>
       <c r="J61" s="3">
+        <v>48627000</v>
+      </c>
+      <c r="K61" s="3">
         <v>41630300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28387400</v>
+        <v>32483900</v>
       </c>
       <c r="E62" s="3">
-        <v>34040500</v>
+        <v>27134200</v>
       </c>
       <c r="F62" s="3">
-        <v>30084800</v>
+        <v>32537700</v>
       </c>
       <c r="G62" s="3">
-        <v>32488700</v>
+        <v>28756600</v>
       </c>
       <c r="H62" s="3">
-        <v>25003300</v>
+        <v>31054400</v>
       </c>
       <c r="I62" s="3">
-        <v>25443500</v>
+        <v>23899500</v>
       </c>
       <c r="J62" s="3">
+        <v>24320300</v>
+      </c>
+      <c r="K62" s="3">
         <v>19337300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>224756000</v>
+        <v>243418000</v>
       </c>
       <c r="E66" s="3">
-        <v>217200000</v>
+        <v>214834000</v>
       </c>
       <c r="F66" s="3">
-        <v>192041000</v>
+        <v>207611000</v>
       </c>
       <c r="G66" s="3">
-        <v>171341000</v>
+        <v>183563000</v>
       </c>
       <c r="H66" s="3">
-        <v>147710000</v>
+        <v>163777000</v>
       </c>
       <c r="I66" s="3">
-        <v>146911000</v>
+        <v>141189000</v>
       </c>
       <c r="J66" s="3">
+        <v>140425000</v>
+      </c>
+      <c r="K66" s="3">
         <v>127368000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55828800</v>
+        <v>55527300</v>
       </c>
       <c r="E72" s="3">
-        <v>47865600</v>
+        <v>53354000</v>
       </c>
       <c r="F72" s="3">
-        <v>43415700</v>
+        <v>45770500</v>
       </c>
       <c r="G72" s="3">
-        <v>33437200</v>
+        <v>41503500</v>
       </c>
       <c r="H72" s="3">
-        <v>32415900</v>
+        <v>31962100</v>
       </c>
       <c r="I72" s="3">
-        <v>40608000</v>
+        <v>30998300</v>
       </c>
       <c r="J72" s="3">
+        <v>38815200</v>
+      </c>
+      <c r="K72" s="3">
         <v>41687900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74970100</v>
+        <v>72555700</v>
       </c>
       <c r="E76" s="3">
-        <v>68022300</v>
+        <v>71660400</v>
       </c>
       <c r="F76" s="3">
-        <v>62870400</v>
+        <v>65019300</v>
       </c>
       <c r="G76" s="3">
-        <v>51254400</v>
+        <v>60094900</v>
       </c>
       <c r="H76" s="3">
-        <v>50098200</v>
+        <v>48991700</v>
       </c>
       <c r="I76" s="3">
-        <v>44493300</v>
+        <v>47886500</v>
       </c>
       <c r="J76" s="3">
+        <v>42529000</v>
+      </c>
+      <c r="K76" s="3">
         <v>46511000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12354400</v>
+        <v>8133300</v>
       </c>
       <c r="E81" s="3">
-        <v>10007900</v>
+        <v>11531800</v>
       </c>
       <c r="F81" s="3">
-        <v>9888200</v>
+        <v>9566100</v>
       </c>
       <c r="G81" s="3">
-        <v>8172100</v>
+        <v>9451600</v>
       </c>
       <c r="H81" s="3">
-        <v>8031200</v>
+        <v>7811300</v>
       </c>
       <c r="I81" s="3">
-        <v>7545300</v>
+        <v>7676700</v>
       </c>
       <c r="J81" s="3">
+        <v>7212200</v>
+      </c>
+      <c r="K81" s="3">
         <v>6652000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6662500</v>
+        <v>7074100</v>
       </c>
       <c r="E83" s="3">
-        <v>6430100</v>
+        <v>6368400</v>
       </c>
       <c r="F83" s="3">
-        <v>6319800</v>
+        <v>6146300</v>
       </c>
       <c r="G83" s="3">
-        <v>5867900</v>
+        <v>6040800</v>
       </c>
       <c r="H83" s="3">
-        <v>5127200</v>
+        <v>5608800</v>
       </c>
       <c r="I83" s="3">
-        <v>4773900</v>
+        <v>4900900</v>
       </c>
       <c r="J83" s="3">
+        <v>4563100</v>
+      </c>
+      <c r="K83" s="3">
         <v>4196400</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1939100</v>
+        <v>384800</v>
       </c>
       <c r="E89" s="3">
-        <v>4356000</v>
+        <v>-1853500</v>
       </c>
       <c r="F89" s="3">
-        <v>260600</v>
+        <v>4163700</v>
       </c>
       <c r="G89" s="3">
-        <v>-1495400</v>
+        <v>249100</v>
       </c>
       <c r="H89" s="3">
-        <v>3856000</v>
+        <v>-1429400</v>
       </c>
       <c r="I89" s="3">
-        <v>-1291200</v>
+        <v>3685700</v>
       </c>
       <c r="J89" s="3">
+        <v>-1234200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-817000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11923600</v>
+        <v>-8453100</v>
       </c>
       <c r="E91" s="3">
-        <v>-10368300</v>
+        <v>-7566700</v>
       </c>
       <c r="F91" s="3">
-        <v>-8611100</v>
+        <v>-6607400</v>
       </c>
       <c r="G91" s="3">
-        <v>-7403200</v>
+        <v>-5694100</v>
       </c>
       <c r="H91" s="3">
-        <v>-8107500</v>
+        <v>-5434900</v>
       </c>
       <c r="I91" s="3">
-        <v>-7814100</v>
+        <v>-5581900</v>
       </c>
       <c r="J91" s="3">
+        <v>-5415800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6897300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11172300</v>
+        <v>-11131300</v>
       </c>
       <c r="E94" s="3">
-        <v>-17215100</v>
+        <v>-10679100</v>
       </c>
       <c r="F94" s="3">
-        <v>-11411800</v>
+        <v>-16455100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3179900</v>
+        <v>-10908000</v>
       </c>
       <c r="H94" s="3">
-        <v>-8015900</v>
+        <v>-3039500</v>
       </c>
       <c r="I94" s="3">
-        <v>-10404700</v>
+        <v>-7662100</v>
       </c>
       <c r="J94" s="3">
+        <v>-9945300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7673200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4081300</v>
+        <v>-4381400</v>
       </c>
       <c r="E96" s="3">
-        <v>-4081300</v>
+        <v>-3901200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3076600</v>
+        <v>-3901200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2825400</v>
+        <v>-2940700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2757300</v>
+        <v>-2700600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2753800</v>
+        <v>-2635600</v>
       </c>
       <c r="J96" s="3">
+        <v>-2632200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2313600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15411000</v>
+        <v>14839400</v>
       </c>
       <c r="E100" s="3">
-        <v>14096300</v>
+        <v>14730600</v>
       </c>
       <c r="F100" s="3">
-        <v>11305000</v>
+        <v>13474000</v>
       </c>
       <c r="G100" s="3">
-        <v>2669200</v>
+        <v>10805900</v>
       </c>
       <c r="H100" s="3">
-        <v>4525000</v>
+        <v>2551400</v>
       </c>
       <c r="I100" s="3">
-        <v>13505900</v>
+        <v>4325300</v>
       </c>
       <c r="J100" s="3">
+        <v>12909600</v>
+      </c>
+      <c r="K100" s="3">
         <v>6857400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1018900</v>
+        <v>149200</v>
       </c>
       <c r="E101" s="3">
-        <v>-10600</v>
+        <v>-973900</v>
       </c>
       <c r="F101" s="3">
-        <v>162000</v>
+        <v>-10100</v>
       </c>
       <c r="G101" s="3">
-        <v>379100</v>
+        <v>154800</v>
       </c>
       <c r="H101" s="3">
-        <v>-298100</v>
+        <v>362400</v>
       </c>
       <c r="I101" s="3">
-        <v>-143200</v>
+        <v>-285000</v>
       </c>
       <c r="J101" s="3">
+        <v>-136900</v>
+      </c>
+      <c r="K101" s="3">
         <v>75100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1280600</v>
+        <v>4242200</v>
       </c>
       <c r="E102" s="3">
-        <v>1226600</v>
+        <v>1224100</v>
       </c>
       <c r="F102" s="3">
-        <v>315800</v>
+        <v>1172500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1626900</v>
+        <v>301800</v>
       </c>
       <c r="H102" s="3">
-        <v>66900</v>
+        <v>-1555100</v>
       </c>
       <c r="I102" s="3">
-        <v>1666800</v>
+        <v>64000</v>
       </c>
       <c r="J102" s="3">
+        <v>1593200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1557600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/DDAIF_YR_FIN.xlsx
+++ b/Financials/Yearly/DDAIF_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E3BEE-B012-4BF2-82FC-5DB987F7CA9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="DDAIF" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>187778500</v>
+        <v>183763500</v>
       </c>
       <c r="E8" s="3">
-        <v>184179100</v>
+        <v>180241100</v>
       </c>
       <c r="F8" s="3">
-        <v>171957300</v>
+        <v>168280600</v>
       </c>
       <c r="G8" s="3">
-        <v>167700500</v>
+        <v>164114800</v>
       </c>
       <c r="H8" s="3">
-        <v>145715100</v>
+        <v>142599500</v>
       </c>
       <c r="I8" s="3">
-        <v>132374600</v>
+        <v>129544200</v>
       </c>
       <c r="J8" s="3">
-        <v>128240100</v>
+        <v>125498100</v>
       </c>
       <c r="K8" s="3">
         <v>125057700</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>150528400</v>
+        <v>147309900</v>
       </c>
       <c r="E9" s="3">
-        <v>145439100</v>
+        <v>142329300</v>
       </c>
       <c r="F9" s="3">
-        <v>135952700</v>
+        <v>133045800</v>
       </c>
       <c r="G9" s="3">
-        <v>132362300</v>
+        <v>129532200</v>
       </c>
       <c r="H9" s="3">
-        <v>113986300</v>
+        <v>111549100</v>
       </c>
       <c r="I9" s="3">
-        <v>104102700</v>
+        <v>101876800</v>
       </c>
       <c r="J9" s="3">
-        <v>103853600</v>
+        <v>101633100</v>
       </c>
       <c r="K9" s="3">
         <v>190211200</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37250100</v>
+        <v>36453600</v>
       </c>
       <c r="E10" s="3">
-        <v>38740100</v>
+        <v>37911700</v>
       </c>
       <c r="F10" s="3">
-        <v>36004700</v>
+        <v>35234800</v>
       </c>
       <c r="G10" s="3">
-        <v>35338200</v>
+        <v>34582600</v>
       </c>
       <c r="H10" s="3">
-        <v>31728800</v>
+        <v>31050300</v>
       </c>
       <c r="I10" s="3">
-        <v>28271900</v>
+        <v>27667400</v>
       </c>
       <c r="J10" s="3">
-        <v>24386500</v>
+        <v>23865000</v>
       </c>
       <c r="K10" s="3">
         <v>-65153500</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7309800</v>
+        <v>7153500</v>
       </c>
       <c r="E12" s="3">
-        <v>6608500</v>
+        <v>6467200</v>
       </c>
       <c r="F12" s="3">
-        <v>5855700</v>
+        <v>5730500</v>
       </c>
       <c r="G12" s="3">
-        <v>5298000</v>
+        <v>5184800</v>
       </c>
       <c r="H12" s="3">
-        <v>5036600</v>
+        <v>4928900</v>
       </c>
       <c r="I12" s="3">
-        <v>4696700</v>
+        <v>4596200</v>
       </c>
       <c r="J12" s="3">
-        <v>9329300</v>
+        <v>9129900</v>
       </c>
       <c r="K12" s="3">
         <v>4899500</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>149200</v>
+        <v>146000</v>
       </c>
       <c r="E14" s="3">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="F14" s="3">
-        <v>309700</v>
+        <v>303000</v>
       </c>
       <c r="G14" s="3">
-        <v>340000</v>
+        <v>332700</v>
       </c>
       <c r="H14" s="3">
-        <v>273800</v>
+        <v>267900</v>
       </c>
       <c r="I14" s="3">
-        <v>158200</v>
+        <v>154800</v>
       </c>
       <c r="J14" s="3">
-        <v>151500</v>
+        <v>148200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>233400</v>
+        <v>229500</v>
       </c>
       <c r="E15" s="3">
-        <v>204200</v>
+        <v>200900</v>
       </c>
       <c r="F15" s="3">
-        <v>164900</v>
+        <v>161400</v>
       </c>
       <c r="G15" s="3">
-        <v>170500</v>
+        <v>166900</v>
       </c>
       <c r="H15" s="3">
-        <v>182900</v>
+        <v>179000</v>
       </c>
       <c r="I15" s="3">
-        <v>68400</v>
+        <v>67000</v>
       </c>
       <c r="J15" s="3">
-        <v>70700</v>
+        <v>69200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>176277000</v>
+        <v>172507900</v>
       </c>
       <c r="E17" s="3">
-        <v>169540500</v>
+        <v>165915500</v>
       </c>
       <c r="F17" s="3">
-        <v>158366600</v>
+        <v>154980500</v>
       </c>
       <c r="G17" s="3">
-        <v>153407400</v>
+        <v>150127300</v>
       </c>
       <c r="H17" s="3">
-        <v>135181800</v>
+        <v>132291400</v>
       </c>
       <c r="I17" s="3">
-        <v>123606300</v>
+        <v>120963400</v>
       </c>
       <c r="J17" s="3">
-        <v>119169900</v>
+        <v>116621900</v>
       </c>
       <c r="K17" s="3">
         <v>115140200</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11501500</v>
+        <v>11255600</v>
       </c>
       <c r="E18" s="3">
-        <v>14638600</v>
+        <v>14325600</v>
       </c>
       <c r="F18" s="3">
-        <v>13590700</v>
+        <v>13300100</v>
       </c>
       <c r="G18" s="3">
-        <v>14293000</v>
+        <v>13987400</v>
       </c>
       <c r="H18" s="3">
-        <v>10533200</v>
+        <v>10308000</v>
       </c>
       <c r="I18" s="3">
-        <v>8768400</v>
+        <v>8580900</v>
       </c>
       <c r="J18" s="3">
-        <v>9070200</v>
+        <v>8876200</v>
       </c>
       <c r="K18" s="3">
         <v>9917500</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1126500</v>
+        <v>1102400</v>
       </c>
       <c r="E20" s="3">
-        <v>1448500</v>
+        <v>1417500</v>
       </c>
       <c r="F20" s="3">
-        <v>875200</v>
+        <v>856400</v>
       </c>
       <c r="G20" s="3">
-        <v>352300</v>
+        <v>344800</v>
       </c>
       <c r="H20" s="3">
-        <v>1290300</v>
+        <v>1262700</v>
       </c>
       <c r="I20" s="3">
-        <v>3201000</v>
+        <v>3132600</v>
       </c>
       <c r="J20" s="3">
-        <v>699000</v>
+        <v>684100</v>
       </c>
       <c r="K20" s="3">
         <v>272300</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19719200</v>
+        <v>19291600</v>
       </c>
       <c r="E21" s="3">
-        <v>22470800</v>
+        <v>21985000</v>
       </c>
       <c r="F21" s="3">
-        <v>20626900</v>
+        <v>20180700</v>
       </c>
       <c r="G21" s="3">
-        <v>20700700</v>
+        <v>20253000</v>
       </c>
       <c r="H21" s="3">
-        <v>17445900</v>
+        <v>17068100</v>
       </c>
       <c r="I21" s="3">
-        <v>16882000</v>
+        <v>16517000</v>
       </c>
       <c r="J21" s="3">
-        <v>14343300</v>
+        <v>14032800</v>
       </c>
       <c r="K21" s="3">
         <v>14389100</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>740500</v>
+        <v>724700</v>
       </c>
       <c r="E22" s="3">
-        <v>416300</v>
+        <v>407400</v>
       </c>
       <c r="F22" s="3">
-        <v>357900</v>
+        <v>350300</v>
       </c>
       <c r="G22" s="3">
-        <v>346700</v>
+        <v>339300</v>
       </c>
       <c r="H22" s="3">
-        <v>409500</v>
+        <v>400800</v>
       </c>
       <c r="I22" s="3">
-        <v>593500</v>
+        <v>580800</v>
       </c>
       <c r="J22" s="3">
-        <v>663100</v>
+        <v>648900</v>
       </c>
       <c r="K22" s="3">
         <v>272300</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11887500</v>
+        <v>11633300</v>
       </c>
       <c r="E23" s="3">
-        <v>15670800</v>
+        <v>15335800</v>
       </c>
       <c r="F23" s="3">
-        <v>14107900</v>
+        <v>13806300</v>
       </c>
       <c r="G23" s="3">
-        <v>14298600</v>
+        <v>13992900</v>
       </c>
       <c r="H23" s="3">
-        <v>11414000</v>
+        <v>11170000</v>
       </c>
       <c r="I23" s="3">
-        <v>11375900</v>
+        <v>11132600</v>
       </c>
       <c r="J23" s="3">
-        <v>9106100</v>
+        <v>8911400</v>
       </c>
       <c r="K23" s="3">
         <v>9917500</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3380600</v>
+        <v>3308300</v>
       </c>
       <c r="E24" s="3">
-        <v>3758700</v>
+        <v>3678300</v>
       </c>
       <c r="F24" s="3">
-        <v>4252300</v>
+        <v>4161400</v>
       </c>
       <c r="G24" s="3">
-        <v>4525000</v>
+        <v>4428200</v>
       </c>
       <c r="H24" s="3">
-        <v>3234700</v>
+        <v>3165500</v>
       </c>
       <c r="I24" s="3">
-        <v>1592100</v>
+        <v>1558100</v>
       </c>
       <c r="J24" s="3">
-        <v>1442900</v>
+        <v>1412000</v>
       </c>
       <c r="K24" s="3">
         <v>2840600</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8506900</v>
+        <v>8325000</v>
       </c>
       <c r="E26" s="3">
-        <v>11912200</v>
+        <v>11657500</v>
       </c>
       <c r="F26" s="3">
-        <v>9855600</v>
+        <v>9644800</v>
       </c>
       <c r="G26" s="3">
-        <v>9773700</v>
+        <v>9564700</v>
       </c>
       <c r="H26" s="3">
-        <v>8179300</v>
+        <v>8004400</v>
       </c>
       <c r="I26" s="3">
-        <v>9783800</v>
+        <v>9574600</v>
       </c>
       <c r="J26" s="3">
-        <v>7663200</v>
+        <v>7499300</v>
       </c>
       <c r="K26" s="3">
         <v>7076900</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8133300</v>
+        <v>7959400</v>
       </c>
       <c r="E27" s="3">
-        <v>11531800</v>
+        <v>11285200</v>
       </c>
       <c r="F27" s="3">
-        <v>9566100</v>
+        <v>9361500</v>
       </c>
       <c r="G27" s="3">
-        <v>9451600</v>
+        <v>9249600</v>
       </c>
       <c r="H27" s="3">
-        <v>7811300</v>
+        <v>7644300</v>
       </c>
       <c r="I27" s="3">
-        <v>7676700</v>
+        <v>7512500</v>
       </c>
       <c r="J27" s="3">
-        <v>7212200</v>
+        <v>7057900</v>
       </c>
       <c r="K27" s="3">
         <v>6652000</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1126500</v>
+        <v>-1102400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1448500</v>
+        <v>-1417500</v>
       </c>
       <c r="F32" s="3">
-        <v>-875200</v>
+        <v>-856400</v>
       </c>
       <c r="G32" s="3">
-        <v>-352300</v>
+        <v>-344800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1290300</v>
+        <v>-1262700</v>
       </c>
       <c r="I32" s="3">
-        <v>-3201000</v>
+        <v>-3132600</v>
       </c>
       <c r="J32" s="3">
-        <v>-699000</v>
+        <v>-684100</v>
       </c>
       <c r="K32" s="3">
         <v>-272300</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8133300</v>
+        <v>7959400</v>
       </c>
       <c r="E33" s="3">
-        <v>11531800</v>
+        <v>11285200</v>
       </c>
       <c r="F33" s="3">
-        <v>9566100</v>
+        <v>9361500</v>
       </c>
       <c r="G33" s="3">
-        <v>9451600</v>
+        <v>9249600</v>
       </c>
       <c r="H33" s="3">
-        <v>7811300</v>
+        <v>7644300</v>
       </c>
       <c r="I33" s="3">
-        <v>7676700</v>
+        <v>7512500</v>
       </c>
       <c r="J33" s="3">
-        <v>7212200</v>
+        <v>7057900</v>
       </c>
       <c r="K33" s="3">
         <v>6652000</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8133300</v>
+        <v>7959400</v>
       </c>
       <c r="E35" s="3">
-        <v>11531800</v>
+        <v>11285200</v>
       </c>
       <c r="F35" s="3">
-        <v>9566100</v>
+        <v>9361500</v>
       </c>
       <c r="G35" s="3">
-        <v>9451600</v>
+        <v>9249600</v>
       </c>
       <c r="H35" s="3">
-        <v>7811300</v>
+        <v>7644300</v>
       </c>
       <c r="I35" s="3">
-        <v>7676700</v>
+        <v>7512500</v>
       </c>
       <c r="J35" s="3">
-        <v>7212200</v>
+        <v>7057900</v>
       </c>
       <c r="K35" s="3">
         <v>6652000</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,277 +1561,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17786900</v>
+        <v>17406600</v>
       </c>
       <c r="E41" s="3">
-        <v>13544700</v>
+        <v>13255100</v>
       </c>
       <c r="F41" s="3">
-        <v>12320600</v>
+        <v>12057100</v>
       </c>
       <c r="G41" s="3">
-        <v>11148100</v>
+        <v>10909700</v>
       </c>
       <c r="H41" s="3">
-        <v>10846300</v>
+        <v>10614400</v>
       </c>
       <c r="I41" s="3">
-        <v>12401400</v>
+        <v>12136200</v>
       </c>
       <c r="J41" s="3">
-        <v>12337400</v>
+        <v>12073600</v>
       </c>
       <c r="K41" s="3">
         <v>11240400</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12679600</v>
+        <v>9822700</v>
       </c>
       <c r="E42" s="3">
-        <v>16877000</v>
+        <v>13976400</v>
       </c>
       <c r="F42" s="3">
-        <v>13275400</v>
+        <v>10593500</v>
       </c>
       <c r="G42" s="3">
-        <v>10405300</v>
+        <v>7823300</v>
       </c>
       <c r="H42" s="3">
-        <v>7897700</v>
+        <v>5775500</v>
       </c>
       <c r="I42" s="3">
-        <v>7979600</v>
+        <v>5929200</v>
       </c>
       <c r="J42" s="3">
-        <v>6876700</v>
+        <v>6729600</v>
       </c>
       <c r="K42" s="3">
         <v>1565900</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69741800</v>
+        <v>71087800</v>
       </c>
       <c r="E43" s="3">
-        <v>74933200</v>
+        <v>76171600</v>
       </c>
       <c r="F43" s="3">
-        <v>58207700</v>
+        <v>59361200</v>
       </c>
       <c r="G43" s="3">
-        <v>53070100</v>
+        <v>54295000</v>
       </c>
       <c r="H43" s="3">
-        <v>42759000</v>
+        <v>43798100</v>
       </c>
       <c r="I43" s="3">
-        <v>35291100</v>
+        <v>36416300</v>
       </c>
       <c r="J43" s="3">
-        <v>66289400</v>
+        <v>64872000</v>
       </c>
       <c r="K43" s="3">
         <v>33346800</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33086400</v>
+        <v>32378900</v>
       </c>
       <c r="E44" s="3">
-        <v>28819400</v>
+        <v>28203200</v>
       </c>
       <c r="F44" s="3">
-        <v>28480600</v>
+        <v>27871600</v>
       </c>
       <c r="G44" s="3">
-        <v>26658500</v>
+        <v>26088500</v>
       </c>
       <c r="H44" s="3">
-        <v>23409200</v>
+        <v>22908700</v>
       </c>
       <c r="I44" s="3">
-        <v>19465400</v>
+        <v>19049200</v>
       </c>
       <c r="J44" s="3">
-        <v>19881700</v>
+        <v>19456600</v>
       </c>
       <c r="K44" s="3">
         <v>20049800</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3153900</v>
+        <v>2835000</v>
       </c>
       <c r="E45" s="3">
-        <v>8887300</v>
+        <v>8396400</v>
       </c>
       <c r="F45" s="3">
-        <v>2217100</v>
+        <v>2169600</v>
       </c>
       <c r="G45" s="3">
-        <v>1769400</v>
+        <v>1731500</v>
       </c>
       <c r="H45" s="3">
-        <v>1643700</v>
+        <v>1608600</v>
       </c>
       <c r="I45" s="3">
-        <v>3896700</v>
+        <v>3813400</v>
       </c>
       <c r="J45" s="3">
-        <v>6187800</v>
+        <v>6055500</v>
       </c>
       <c r="K45" s="3">
         <v>5538000</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136449000</v>
+        <v>133531000</v>
       </c>
       <c r="E46" s="3">
-        <v>119936000</v>
+        <v>117372000</v>
       </c>
       <c r="F46" s="3">
-        <v>114501000</v>
+        <v>112053000</v>
       </c>
       <c r="G46" s="3">
-        <v>103051000</v>
+        <v>100848000</v>
       </c>
       <c r="H46" s="3">
-        <v>86555900</v>
+        <v>84705200</v>
       </c>
       <c r="I46" s="3">
-        <v>79034100</v>
+        <v>77344200</v>
       </c>
       <c r="J46" s="3">
-        <v>75687200</v>
+        <v>74068900</v>
       </c>
       <c r="K46" s="3">
         <v>71740900</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66787600</v>
+        <v>65389200</v>
       </c>
       <c r="E47" s="3">
-        <v>65249300</v>
+        <v>63887100</v>
       </c>
       <c r="F47" s="3">
-        <v>56088300</v>
+        <v>54889000</v>
       </c>
       <c r="G47" s="3">
-        <v>52913000</v>
+        <v>51781700</v>
       </c>
       <c r="H47" s="3">
-        <v>46620900</v>
+        <v>45624100</v>
       </c>
       <c r="I47" s="3">
-        <v>40086500</v>
+        <v>39229300</v>
       </c>
       <c r="J47" s="3">
-        <v>43010400</v>
+        <v>42090700</v>
       </c>
       <c r="K47" s="3">
         <v>35936200</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90234900</v>
+        <v>88305600</v>
       </c>
       <c r="E48" s="3">
-        <v>168422000</v>
+        <v>164821000</v>
       </c>
       <c r="F48" s="3">
-        <v>82267700</v>
+        <v>80508700</v>
       </c>
       <c r="G48" s="3">
-        <v>70981600</v>
+        <v>69463900</v>
       </c>
       <c r="H48" s="3">
-        <v>63091700</v>
+        <v>61742700</v>
       </c>
       <c r="I48" s="3">
-        <v>56031100</v>
+        <v>54833000</v>
       </c>
       <c r="J48" s="3">
-        <v>104697000</v>
+        <v>102459000</v>
       </c>
       <c r="K48" s="3">
         <v>49289500</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16606600</v>
+        <v>16251500</v>
       </c>
       <c r="E49" s="3">
-        <v>30821100</v>
+        <v>30162100</v>
       </c>
       <c r="F49" s="3">
-        <v>13573800</v>
+        <v>13283600</v>
       </c>
       <c r="G49" s="3">
-        <v>11297300</v>
+        <v>11055800</v>
       </c>
       <c r="H49" s="3">
-        <v>10509700</v>
+        <v>10285000</v>
       </c>
       <c r="I49" s="3">
-        <v>10533200</v>
+        <v>10308000</v>
       </c>
       <c r="J49" s="3">
-        <v>19937800</v>
+        <v>19511500</v>
       </c>
       <c r="K49" s="3">
         <v>9694500</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5896100</v>
+        <v>5740300</v>
       </c>
       <c r="E52" s="3">
-        <v>6632100</v>
+        <v>6457300</v>
       </c>
       <c r="F52" s="3">
-        <v>6199000</v>
+        <v>6066500</v>
       </c>
       <c r="G52" s="3">
-        <v>5414700</v>
+        <v>5298900</v>
       </c>
       <c r="H52" s="3">
-        <v>5990300</v>
+        <v>5862200</v>
       </c>
       <c r="I52" s="3">
-        <v>3390700</v>
+        <v>3318200</v>
       </c>
       <c r="J52" s="3">
-        <v>8030100</v>
+        <v>7858400</v>
       </c>
       <c r="K52" s="3">
         <v>7217800</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>315974000</v>
+        <v>309218000</v>
       </c>
       <c r="E54" s="3">
-        <v>286495000</v>
+        <v>280369000</v>
       </c>
       <c r="F54" s="3">
-        <v>272630000</v>
+        <v>266801000</v>
       </c>
       <c r="G54" s="3">
-        <v>243658000</v>
+        <v>238448000</v>
       </c>
       <c r="H54" s="3">
-        <v>212769000</v>
+        <v>208219000</v>
       </c>
       <c r="I54" s="3">
-        <v>189076000</v>
+        <v>185033000</v>
       </c>
       <c r="J54" s="3">
-        <v>182954000</v>
+        <v>179042000</v>
       </c>
       <c r="K54" s="3">
         <v>173879000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15915400</v>
+        <v>15575100</v>
       </c>
       <c r="E57" s="3">
-        <v>13969900</v>
+        <v>13671200</v>
       </c>
       <c r="F57" s="3">
-        <v>12978100</v>
+        <v>12700600</v>
       </c>
       <c r="G57" s="3">
-        <v>11834800</v>
+        <v>11581700</v>
       </c>
       <c r="H57" s="3">
-        <v>11419600</v>
+        <v>11175400</v>
       </c>
       <c r="I57" s="3">
-        <v>10194400</v>
+        <v>9976400</v>
       </c>
       <c r="J57" s="3">
-        <v>9909400</v>
+        <v>9697500</v>
       </c>
       <c r="K57" s="3">
         <v>11168800</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>63100700</v>
+        <v>61751500</v>
       </c>
       <c r="E58" s="3">
-        <v>54692500</v>
+        <v>53523100</v>
       </c>
       <c r="F58" s="3">
-        <v>53056700</v>
+        <v>51922200</v>
       </c>
       <c r="G58" s="3">
-        <v>46350500</v>
+        <v>45359500</v>
       </c>
       <c r="H58" s="3">
-        <v>40717000</v>
+        <v>39846400</v>
       </c>
       <c r="I58" s="3">
-        <v>37016700</v>
+        <v>36225200</v>
       </c>
       <c r="J58" s="3">
-        <v>36987500</v>
+        <v>36196700</v>
       </c>
       <c r="K58" s="3">
         <v>31341900</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30885000</v>
+        <v>30224600</v>
       </c>
       <c r="E59" s="3">
-        <v>40134700</v>
+        <v>41784400</v>
       </c>
       <c r="F59" s="3">
-        <v>28725200</v>
+        <v>28111000</v>
       </c>
       <c r="G59" s="3">
-        <v>28298800</v>
+        <v>27693800</v>
       </c>
       <c r="H59" s="3">
-        <v>23007500</v>
+        <v>22515600</v>
       </c>
       <c r="I59" s="3">
-        <v>19107500</v>
+        <v>18698900</v>
       </c>
       <c r="J59" s="3">
-        <v>20883600</v>
+        <v>20437100</v>
       </c>
       <c r="K59" s="3">
         <v>21878600</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>109901000</v>
+        <v>107551000</v>
       </c>
       <c r="E60" s="3">
-        <v>98313300</v>
+        <v>96211200</v>
       </c>
       <c r="F60" s="3">
-        <v>94759900</v>
+        <v>92733800</v>
       </c>
       <c r="G60" s="3">
-        <v>86484100</v>
+        <v>84634900</v>
       </c>
       <c r="H60" s="3">
-        <v>75144200</v>
+        <v>73537500</v>
       </c>
       <c r="I60" s="3">
-        <v>66318600</v>
+        <v>64900600</v>
       </c>
       <c r="J60" s="3">
-        <v>65878800</v>
+        <v>64470200</v>
       </c>
       <c r="K60" s="3">
         <v>64389300</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>99477900</v>
+        <v>97350900</v>
       </c>
       <c r="E61" s="3">
-        <v>87939300</v>
+        <v>86059000</v>
       </c>
       <c r="F61" s="3">
-        <v>78985900</v>
+        <v>77297000</v>
       </c>
       <c r="G61" s="3">
-        <v>67129800</v>
+        <v>65694400</v>
       </c>
       <c r="H61" s="3">
-        <v>56547200</v>
+        <v>55338100</v>
       </c>
       <c r="I61" s="3">
-        <v>50204600</v>
+        <v>49131100</v>
       </c>
       <c r="J61" s="3">
-        <v>48627000</v>
+        <v>47587300</v>
       </c>
       <c r="K61" s="3">
         <v>41630300</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32483900</v>
+        <v>31789300</v>
       </c>
       <c r="E62" s="3">
-        <v>27134200</v>
+        <v>29156300</v>
       </c>
       <c r="F62" s="3">
-        <v>32537700</v>
+        <v>31842000</v>
       </c>
       <c r="G62" s="3">
-        <v>28756600</v>
+        <v>28141700</v>
       </c>
       <c r="H62" s="3">
-        <v>31054400</v>
+        <v>30390400</v>
       </c>
       <c r="I62" s="3">
-        <v>23899500</v>
+        <v>23388500</v>
       </c>
       <c r="J62" s="3">
-        <v>24320300</v>
+        <v>23800200</v>
       </c>
       <c r="K62" s="3">
         <v>19337300</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>243418000</v>
+        <v>238213000</v>
       </c>
       <c r="E66" s="3">
-        <v>214834000</v>
+        <v>210241000</v>
       </c>
       <c r="F66" s="3">
-        <v>207611000</v>
+        <v>203172000</v>
       </c>
       <c r="G66" s="3">
-        <v>183563000</v>
+        <v>179638000</v>
       </c>
       <c r="H66" s="3">
-        <v>163777000</v>
+        <v>160275000</v>
       </c>
       <c r="I66" s="3">
-        <v>141189000</v>
+        <v>138170000</v>
       </c>
       <c r="J66" s="3">
-        <v>140425000</v>
+        <v>137422000</v>
       </c>
       <c r="K66" s="3">
         <v>127368000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55527300</v>
+        <v>54340000</v>
       </c>
       <c r="E72" s="3">
-        <v>53354000</v>
+        <v>52213200</v>
       </c>
       <c r="F72" s="3">
-        <v>45770500</v>
+        <v>44791800</v>
       </c>
       <c r="G72" s="3">
-        <v>41503500</v>
+        <v>40616100</v>
       </c>
       <c r="H72" s="3">
-        <v>31962100</v>
+        <v>31278700</v>
       </c>
       <c r="I72" s="3">
-        <v>30998300</v>
+        <v>30335500</v>
       </c>
       <c r="J72" s="3">
-        <v>38815200</v>
+        <v>37985300</v>
       </c>
       <c r="K72" s="3">
         <v>41687900</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72555700</v>
+        <v>71004400</v>
       </c>
       <c r="E76" s="3">
-        <v>71660400</v>
+        <v>70128200</v>
       </c>
       <c r="F76" s="3">
-        <v>65019300</v>
+        <v>63629100</v>
       </c>
       <c r="G76" s="3">
-        <v>60094900</v>
+        <v>58810000</v>
       </c>
       <c r="H76" s="3">
-        <v>48991700</v>
+        <v>47944200</v>
       </c>
       <c r="I76" s="3">
-        <v>47886500</v>
+        <v>46862600</v>
       </c>
       <c r="J76" s="3">
-        <v>42529000</v>
+        <v>41619700</v>
       </c>
       <c r="K76" s="3">
         <v>46511000</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8133300</v>
+        <v>7959400</v>
       </c>
       <c r="E81" s="3">
-        <v>11531800</v>
+        <v>11285200</v>
       </c>
       <c r="F81" s="3">
-        <v>9566100</v>
+        <v>9361500</v>
       </c>
       <c r="G81" s="3">
-        <v>9451600</v>
+        <v>9249600</v>
       </c>
       <c r="H81" s="3">
-        <v>7811300</v>
+        <v>7644300</v>
       </c>
       <c r="I81" s="3">
-        <v>7676700</v>
+        <v>7512500</v>
       </c>
       <c r="J81" s="3">
-        <v>7212200</v>
+        <v>7057900</v>
       </c>
       <c r="K81" s="3">
         <v>6652000</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7074100</v>
+        <v>6922900</v>
       </c>
       <c r="E83" s="3">
-        <v>6368400</v>
+        <v>6232200</v>
       </c>
       <c r="F83" s="3">
-        <v>6146300</v>
+        <v>6014800</v>
       </c>
       <c r="G83" s="3">
-        <v>6040800</v>
+        <v>5911600</v>
       </c>
       <c r="H83" s="3">
-        <v>5608800</v>
+        <v>5488900</v>
       </c>
       <c r="I83" s="3">
-        <v>4900900</v>
+        <v>4796100</v>
       </c>
       <c r="J83" s="3">
-        <v>4563100</v>
+        <v>4465600</v>
       </c>
       <c r="K83" s="3">
         <v>4196400</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>384800</v>
+        <v>376600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1853500</v>
+        <v>-1813900</v>
       </c>
       <c r="F89" s="3">
-        <v>4163700</v>
+        <v>4074700</v>
       </c>
       <c r="G89" s="3">
-        <v>249100</v>
+        <v>243800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1429400</v>
+        <v>-1398900</v>
       </c>
       <c r="I89" s="3">
-        <v>3685700</v>
+        <v>3606900</v>
       </c>
       <c r="J89" s="3">
-        <v>-1234200</v>
+        <v>-1207800</v>
       </c>
       <c r="K89" s="3">
         <v>-817000</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8453100</v>
+        <v>-8272300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7566700</v>
+        <v>-7404900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6607400</v>
+        <v>-6466100</v>
       </c>
       <c r="G91" s="3">
-        <v>-5694100</v>
+        <v>-5572400</v>
       </c>
       <c r="H91" s="3">
-        <v>-5434900</v>
+        <v>-5318700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5581900</v>
+        <v>-5462600</v>
       </c>
       <c r="J91" s="3">
-        <v>-5415800</v>
+        <v>-5300000</v>
       </c>
       <c r="K91" s="3">
         <v>-6897300</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11131300</v>
+        <v>-10893300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10679100</v>
+        <v>-10450800</v>
       </c>
       <c r="F94" s="3">
-        <v>-16455100</v>
+        <v>-16103300</v>
       </c>
       <c r="G94" s="3">
-        <v>-10908000</v>
+        <v>-10674800</v>
       </c>
       <c r="H94" s="3">
-        <v>-3039500</v>
+        <v>-2974500</v>
       </c>
       <c r="I94" s="3">
-        <v>-7662100</v>
+        <v>-7498200</v>
       </c>
       <c r="J94" s="3">
-        <v>-9945300</v>
+        <v>-9732700</v>
       </c>
       <c r="K94" s="3">
         <v>-7673200</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4381400</v>
+        <v>-4287700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3901200</v>
+        <v>-3817700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3901200</v>
+        <v>-3817700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2940700</v>
+        <v>-2877900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2700600</v>
+        <v>-2642900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2635600</v>
+        <v>-2579200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2632200</v>
+        <v>-2575900</v>
       </c>
       <c r="K96" s="3">
         <v>-2313600</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14839400</v>
+        <v>14522100</v>
       </c>
       <c r="E100" s="3">
-        <v>14730600</v>
+        <v>14415600</v>
       </c>
       <c r="F100" s="3">
-        <v>13474000</v>
+        <v>13185900</v>
       </c>
       <c r="G100" s="3">
-        <v>10805900</v>
+        <v>10574800</v>
       </c>
       <c r="H100" s="3">
-        <v>2551400</v>
+        <v>2496900</v>
       </c>
       <c r="I100" s="3">
-        <v>4325300</v>
+        <v>4232800</v>
       </c>
       <c r="J100" s="3">
-        <v>12909600</v>
+        <v>12633600</v>
       </c>
       <c r="K100" s="3">
         <v>6857400</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>149200</v>
+        <v>146000</v>
       </c>
       <c r="E101" s="3">
-        <v>-973900</v>
+        <v>-953100</v>
       </c>
       <c r="F101" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="G101" s="3">
-        <v>154800</v>
+        <v>151500</v>
       </c>
       <c r="H101" s="3">
-        <v>362400</v>
+        <v>354700</v>
       </c>
       <c r="I101" s="3">
-        <v>-285000</v>
+        <v>-278900</v>
       </c>
       <c r="J101" s="3">
-        <v>-136900</v>
+        <v>-134000</v>
       </c>
       <c r="K101" s="3">
         <v>75100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4242200</v>
+        <v>4151500</v>
       </c>
       <c r="E102" s="3">
-        <v>1224100</v>
+        <v>1197900</v>
       </c>
       <c r="F102" s="3">
-        <v>1172500</v>
+        <v>1147400</v>
       </c>
       <c r="G102" s="3">
-        <v>301800</v>
+        <v>295400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1555100</v>
+        <v>-1521800</v>
       </c>
       <c r="I102" s="3">
-        <v>64000</v>
+        <v>62600</v>
       </c>
       <c r="J102" s="3">
-        <v>1593200</v>
+        <v>1559200</v>
       </c>
       <c r="K102" s="3">
         <v>-1557600</v>
